--- a/beheer/Template_NLCS_Objecten.xlsx
+++ b/beheer/Template_NLCS_Objecten.xlsx
@@ -1,20 +1,19 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27726"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\Shared drives\Projects\digiGO\(EP1340) DigiGO - NLCS uitbreidingen (grootboekrekening 7051)\Deliverables\NLCS\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\Shared drives\Projects\digiGO\(EP1340) DigiGO - NLCS uitbreidingen (grootboekrekening 7051)\Deliverables\NLCS\Templates\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6E604935-55B1-4245-AA55-5B2798A8013F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9AA32A09-EF0C-4B90-8441-85501EB26B9D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{60041FA5-5D75-483A-B673-B74EAE8C978B}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13896" xr2:uid="{60041FA5-5D75-483A-B673-B74EAE8C978B}"/>
   </bookViews>
   <sheets>
     <sheet name="Objecten" sheetId="1" r:id="rId1"/>
-    <sheet name="Hoofdgroep" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -39,10 +38,9 @@
 <file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
 <comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
   <authors>
-    <author>tc={EB917BFE-A774-48F5-893C-EE37FAF7AAF2}</author>
+    <author>tc={D919D14F-666C-435F-AE5A-AC57D2C0A295}</author>
     <author>tc={5831A744-390F-449F-9E90-81503F5E4993}</author>
     <author>tc={C6EF372A-E5FC-4B8D-B6D9-D5374B6515BA}</author>
-    <author>tc={3CAD3B35-DD1C-40D7-A669-97C93C1391F6}</author>
     <author>tc={8B35986E-8824-4746-95A3-8B5B0EFA70A8}</author>
     <author>tc={C832C90C-B16B-4C44-89F6-276F4D8DB548}</author>
     <author>tc={CFD70E49-BEAB-4D0F-9434-E4606C308549}</author>
@@ -52,15 +50,15 @@
     <author>tc={132B3568-0A30-4C3C-9753-E098E12B8572}</author>
   </authors>
   <commentList>
-    <comment ref="A1" authorId="0" shapeId="0" xr:uid="{EB917BFE-A774-48F5-893C-EE37FAF7AAF2}">
+    <comment ref="A1" authorId="0" shapeId="0" xr:uid="{D919D14F-666C-435F-AE5A-AC57D2C0A295}">
       <text>
         <t xml:space="preserve">[Threaded comment]
 Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
 Comment:
     Verplicht: JA
-Inputtype: integer (hele getallen)
-Doel: Een code die gebruikt wordt bij het aanduiden van de hierarchie van de objecten
-Voorbeeld:  1
+Inputtype: string (tekst)
+Doel: Aangeven wat de hoofdgroep van het object is mbv de afkorting
+Voorbeeld:  AL
 </t>
       </text>
     </comment>
@@ -69,10 +67,10 @@
         <t xml:space="preserve">[Threaded comment]
 Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
 Comment:
-    Verplicht: DEELS (óf 'omschrijving', óf 'bewerking' moet ingevuld zijn)
-Inputtype: string (tekst)
-Doel: Aangeven wat de (extensie van de) naam van het object is 
-Voorbeeld: voor een onderliggend object genaamd BLADVERWIJZING_AS geef je bij het bovenliggende object de omschrijving BLADVERWIJZING en bij het onderliggende object de omschrijving AS. Middels de kind_van relatie worden deze namen samengevoegd tijdens de conversie naar Laces Apps
+    Verplicht: JA
+Inputtype: string (tekst)
+Doel: Aangeven wat de naam van het object is 
+Voorbeeld:  BLADVERWIJZING_AS
 </t>
       </text>
     </comment>
@@ -82,25 +80,13 @@
 Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
 Comment:
     Verplicht: NEE
-Inputtype: integer (hele getallen)
-Doel: Aanduiden van het bovenliggende object dmv het id_nummer van dit object. Mocht er geen waarde voor zijn, mag deze cel leeggelaten worden, of zoals voorheen ingevuld worden met een 0
-Voorbeeld:  3
+Inputtype: string (tekst)
+Doel: Aanduiden wat het bovenliggende object is mbv de naam van het object. Mocht het bovenliggende concept de hoofdgroep zijn, laat deze cel dan leeg
+Voorbeeld:  TEKENBLAD_KADER
 </t>
       </text>
     </comment>
-    <comment ref="D1" authorId="3" shapeId="0" xr:uid="{3CAD3B35-DD1C-40D7-A669-97C93C1391F6}">
-      <text>
-        <t xml:space="preserve">[Threaded comment]
-Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
-Comment:
-    Verplicht: DEELS (óf 'omschrijving', óf 'bewerking' moet ingevuld zijn)
-Inputtype: string (tekst)
-Doel: Aangeven wat de (extensie van de) naam van het object is 
-Voorbeeld: voor een onderliggend object genaamd RIOOLPUT-OPHOOGTEBRENGEN geef je bij het bovenliggende object de omschrijving RIOOLPUT en bij het onderliggende object de bewerking OPHOOGTEBRENGEN. Middels de kind_van relatie worden deze namen samengevoegd tijdens de conversie naar Laces Apps
-</t>
-      </text>
-    </comment>
-    <comment ref="E1" authorId="4" shapeId="0" xr:uid="{8B35986E-8824-4746-95A3-8B5B0EFA70A8}">
+    <comment ref="D1" authorId="3" shapeId="0" xr:uid="{8B35986E-8824-4746-95A3-8B5B0EFA70A8}">
       <text>
         <t xml:space="preserve">[Threaded comment]
 Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
@@ -113,7 +99,7 @@
 </t>
       </text>
     </comment>
-    <comment ref="F1" authorId="5" shapeId="0" xr:uid="{C832C90C-B16B-4C44-89F6-276F4D8DB548}">
+    <comment ref="E1" authorId="4" shapeId="0" xr:uid="{C832C90C-B16B-4C44-89F6-276F4D8DB548}">
       <text>
         <t xml:space="preserve">[Threaded comment]
 Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
@@ -126,7 +112,7 @@
 </t>
       </text>
     </comment>
-    <comment ref="K1" authorId="6" shapeId="0" xr:uid="{CFD70E49-BEAB-4D0F-9434-E4606C308549}">
+    <comment ref="J1" authorId="5" shapeId="0" xr:uid="{CFD70E49-BEAB-4D0F-9434-E4606C308549}">
       <text>
         <t xml:space="preserve">[Threaded comment]
 Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
@@ -139,7 +125,7 @@
 </t>
       </text>
     </comment>
-    <comment ref="AG1" authorId="7" shapeId="0" xr:uid="{36F6B07B-5F3C-4E8F-B592-EDFF0BB894E4}">
+    <comment ref="AF1" authorId="6" shapeId="0" xr:uid="{36F6B07B-5F3C-4E8F-B592-EDFF0BB894E4}">
       <text>
         <t xml:space="preserve">[Threaded comment]
 Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
@@ -150,7 +136,7 @@
 </t>
       </text>
     </comment>
-    <comment ref="AH1" authorId="8" shapeId="0" xr:uid="{0AEB88B0-7D0A-4B50-B7D8-A3DD4D0CA190}">
+    <comment ref="AG1" authorId="7" shapeId="0" xr:uid="{0AEB88B0-7D0A-4B50-B7D8-A3DD4D0CA190}">
       <text>
         <t xml:space="preserve">[Threaded comment]
 Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
@@ -162,7 +148,7 @@
 </t>
       </text>
     </comment>
-    <comment ref="AI1" authorId="9" shapeId="0" xr:uid="{33346987-78F2-4D7D-B976-CF6F2CEBCCB2}">
+    <comment ref="AH1" authorId="8" shapeId="0" xr:uid="{33346987-78F2-4D7D-B976-CF6F2CEBCCB2}">
       <text>
         <t xml:space="preserve">[Threaded comment]
 Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
@@ -174,7 +160,7 @@
 </t>
       </text>
     </comment>
-    <comment ref="AJ1" authorId="10" shapeId="0" xr:uid="{132B3568-0A30-4C3C-9753-E098E12B8572}">
+    <comment ref="AI1" authorId="9" shapeId="0" xr:uid="{132B3568-0A30-4C3C-9753-E098E12B8572}">
       <text>
         <t xml:space="preserve">[Threaded comment]
 Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
@@ -190,179 +176,119 @@
 </comments>
 </file>
 
-<file path=xl/comments2.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
-  <authors>
-    <author>tc={3A8A9D40-6C8F-4FF5-A326-EC664DEFDF4B}</author>
-    <author>tc={39D5801C-25C8-4A2E-91A0-FB3C86E35485}</author>
-    <author>tc={B2A5AE3E-593A-4E32-8CFF-3C39C0630F12}</author>
-  </authors>
-  <commentList>
-    <comment ref="A1" authorId="0" shapeId="0" xr:uid="{3A8A9D40-6C8F-4FF5-A326-EC664DEFDF4B}">
-      <text>
-        <t xml:space="preserve">[Threaded comment]
-Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
-Comment:
-    Verplicht: NEE
-Inputtype: integer (hele getallen)
-Doel: De hoofdgroepen met een nummer onderscheiden, kan uitgefaseerd worden vanwege de nieuwe URIs. Dit veld mag dus leeggelaten worden
-Voorbeeld:  1
-</t>
-      </text>
-    </comment>
-    <comment ref="B1" authorId="1" shapeId="0" xr:uid="{39D5801C-25C8-4A2E-91A0-FB3C86E35485}">
-      <text>
-        <t xml:space="preserve">[Threaded comment]
-Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
-Comment:
-    Verplicht: JA
-Inputtype: string (tekst)
-Doel: De naam/beschrijving van de hoofdgroep
-Voorbeeld:  ALgemeen
-</t>
-      </text>
-    </comment>
-    <comment ref="C1" authorId="2" shapeId="0" xr:uid="{B2A5AE3E-593A-4E32-8CFF-3C39C0630F12}">
-      <text>
-        <t xml:space="preserve">[Threaded comment]
-Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
-Comment:
-    Verplicht: JA
-Inputtype: string (tekst)
-Doel: De afkorting van de hoofdgroep
-Voorbeeld:  AL
-</t>
-      </text>
-    </comment>
-  </commentList>
-</comments>
-</file>
-
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="39" uniqueCount="39">
-  <si>
-    <t>hoofdgroep_id</t>
-  </si>
-  <si>
-    <t>afkorting</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="35">
+  <si>
+    <t>omschrijving</t>
+  </si>
+  <si>
+    <t>kind_van</t>
+  </si>
+  <si>
+    <t>lw_b</t>
+  </si>
+  <si>
+    <t>kl_b</t>
+  </si>
+  <si>
+    <t>kl_b_a</t>
+  </si>
+  <si>
+    <t>kl_b_gd</t>
+  </si>
+  <si>
+    <t>kl_b_gn</t>
+  </si>
+  <si>
+    <t>kl_b_v</t>
+  </si>
+  <si>
+    <t>lt_b</t>
+  </si>
+  <si>
+    <t>lw_n</t>
+  </si>
+  <si>
+    <t>kl_n</t>
+  </si>
+  <si>
+    <t>kl_n_a</t>
+  </si>
+  <si>
+    <t>kl_n_gd</t>
+  </si>
+  <si>
+    <t>kl_n_gn</t>
+  </si>
+  <si>
+    <t>kl_n_v</t>
+  </si>
+  <si>
+    <t>lt_n</t>
+  </si>
+  <si>
+    <t>lw_t</t>
+  </si>
+  <si>
+    <t>kl_t</t>
+  </si>
+  <si>
+    <t>kl_t_a</t>
+  </si>
+  <si>
+    <t>kl_t_gd</t>
+  </si>
+  <si>
+    <t>kl_t_gn</t>
+  </si>
+  <si>
+    <t>kl_t_v</t>
+  </si>
+  <si>
+    <t>lt_t</t>
+  </si>
+  <si>
+    <t>lw_v</t>
+  </si>
+  <si>
+    <t>kl_v</t>
+  </si>
+  <si>
+    <t>kl_v_a</t>
+  </si>
+  <si>
+    <t>kl_v_gd</t>
+  </si>
+  <si>
+    <t>kl_v_gn</t>
+  </si>
+  <si>
+    <t>kl_v_v</t>
+  </si>
+  <si>
+    <t>lt_v</t>
+  </si>
+  <si>
+    <t>element</t>
+  </si>
+  <si>
+    <t>sobject</t>
+  </si>
+  <si>
+    <t>aobject</t>
+  </si>
+  <si>
+    <t>vrkl_kort</t>
   </si>
   <si>
     <t>hoofdgroep</t>
-  </si>
-  <si>
-    <t>id_nummer</t>
-  </si>
-  <si>
-    <t>omschrijving</t>
-  </si>
-  <si>
-    <t>kind_van</t>
-  </si>
-  <si>
-    <t>bewerking</t>
-  </si>
-  <si>
-    <t>lw_b</t>
-  </si>
-  <si>
-    <t>kl_b</t>
-  </si>
-  <si>
-    <t>kl_b_a</t>
-  </si>
-  <si>
-    <t>kl_b_gd</t>
-  </si>
-  <si>
-    <t>kl_b_gn</t>
-  </si>
-  <si>
-    <t>kl_b_v</t>
-  </si>
-  <si>
-    <t>lt_b</t>
-  </si>
-  <si>
-    <t>lw_n</t>
-  </si>
-  <si>
-    <t>kl_n</t>
-  </si>
-  <si>
-    <t>kl_n_a</t>
-  </si>
-  <si>
-    <t>kl_n_gd</t>
-  </si>
-  <si>
-    <t>kl_n_gn</t>
-  </si>
-  <si>
-    <t>kl_n_v</t>
-  </si>
-  <si>
-    <t>lt_n</t>
-  </si>
-  <si>
-    <t>lw_t</t>
-  </si>
-  <si>
-    <t>kl_t</t>
-  </si>
-  <si>
-    <t>kl_t_a</t>
-  </si>
-  <si>
-    <t>kl_t_gd</t>
-  </si>
-  <si>
-    <t>kl_t_gn</t>
-  </si>
-  <si>
-    <t>kl_t_v</t>
-  </si>
-  <si>
-    <t>lt_t</t>
-  </si>
-  <si>
-    <t>lw_v</t>
-  </si>
-  <si>
-    <t>kl_v</t>
-  </si>
-  <si>
-    <t>kl_v_a</t>
-  </si>
-  <si>
-    <t>kl_v_gd</t>
-  </si>
-  <si>
-    <t>kl_v_gn</t>
-  </si>
-  <si>
-    <t>kl_v_v</t>
-  </si>
-  <si>
-    <t>lt_v</t>
-  </si>
-  <si>
-    <t>element</t>
-  </si>
-  <si>
-    <t>sobject</t>
-  </si>
-  <si>
-    <t>aobject</t>
-  </si>
-  <si>
-    <t>vrkl_kort</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -378,8 +304,14 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="9"/>
+      <color indexed="81"/>
+      <name val="Tahoma"/>
+      <charset val="1"/>
+    </font>
   </fonts>
-  <fills count="5">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -398,12 +330,6 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.39997558519241921"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
   </fills>
   <borders count="1">
     <border>
@@ -417,12 +343,11 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -763,35 +688,28 @@
 
 <file path=xl/threadedComments/threadedComment1.xml><?xml version="1.0" encoding="utf-8"?>
 <ThreadedComments xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <threadedComment ref="A1" dT="2024-04-15T13:18:55.58" personId="{1CD65258-FFA6-4AB2-8F7D-0E4AE7FB9673}" id="{EB917BFE-A774-48F5-893C-EE37FAF7AAF2}">
+  <threadedComment ref="A1" dT="2024-08-02T09:33:19.14" personId="{1CD65258-FFA6-4AB2-8F7D-0E4AE7FB9673}" id="{D919D14F-666C-435F-AE5A-AC57D2C0A295}">
     <text xml:space="preserve">Verplicht: JA
-Inputtype: integer (hele getallen)
-Doel: Een code die gebruikt wordt bij het aanduiden van de hierarchie van de objecten
-Voorbeeld:  1
+Inputtype: string (tekst)
+Doel: Aangeven wat de hoofdgroep van het object is mbv de afkorting
+Voorbeeld:  AL
 </text>
   </threadedComment>
   <threadedComment ref="B1" dT="2024-04-15T13:20:18.81" personId="{1CD65258-FFA6-4AB2-8F7D-0E4AE7FB9673}" id="{5831A744-390F-449F-9E90-81503F5E4993}">
-    <text xml:space="preserve">Verplicht: DEELS (óf 'omschrijving', óf 'bewerking' moet ingevuld zijn)
-Inputtype: string (tekst)
-Doel: Aangeven wat de (extensie van de) naam van het object is 
-Voorbeeld: voor een onderliggend object genaamd BLADVERWIJZING_AS geef je bij het bovenliggende object de omschrijving BLADVERWIJZING en bij het onderliggende object de omschrijving AS. Middels de kind_van relatie worden deze namen samengevoegd tijdens de conversie naar Laces Apps
+    <text xml:space="preserve">Verplicht: JA
+Inputtype: string (tekst)
+Doel: Aangeven wat de naam van het object is 
+Voorbeeld:  BLADVERWIJZING_AS
 </text>
   </threadedComment>
   <threadedComment ref="C1" dT="2024-04-15T13:22:07.41" personId="{1CD65258-FFA6-4AB2-8F7D-0E4AE7FB9673}" id="{C6EF372A-E5FC-4B8D-B6D9-D5374B6515BA}">
     <text xml:space="preserve">Verplicht: NEE
-Inputtype: integer (hele getallen)
-Doel: Aanduiden van het bovenliggende object dmv het id_nummer van dit object. Mocht er geen waarde voor zijn, mag deze cel leeggelaten worden, of zoals voorheen ingevuld worden met een 0
-Voorbeeld:  3
+Inputtype: string (tekst)
+Doel: Aanduiden wat het bovenliggende object is mbv de naam van het object. Mocht het bovenliggende concept de hoofdgroep zijn, laat deze cel dan leeg
+Voorbeeld:  TEKENBLAD_KADER
 </text>
   </threadedComment>
-  <threadedComment ref="D1" dT="2024-04-15T13:31:24.23" personId="{1CD65258-FFA6-4AB2-8F7D-0E4AE7FB9673}" id="{3CAD3B35-DD1C-40D7-A669-97C93C1391F6}">
-    <text xml:space="preserve">Verplicht: DEELS (óf 'omschrijving', óf 'bewerking' moet ingevuld zijn)
-Inputtype: string (tekst)
-Doel: Aangeven wat de (extensie van de) naam van het object is 
-Voorbeeld: voor een onderliggend object genaamd RIOOLPUT-OPHOOGTEBRENGEN geef je bij het bovenliggende object de omschrijving RIOOLPUT en bij het onderliggende object de bewerking OPHOOGTEBRENGEN. Middels de kind_van relatie worden deze namen samengevoegd tijdens de conversie naar Laces Apps
-</text>
-  </threadedComment>
-  <threadedComment ref="E1" dT="2024-04-15T13:35:52.34" personId="{1CD65258-FFA6-4AB2-8F7D-0E4AE7FB9673}" id="{8B35986E-8824-4746-95A3-8B5B0EFA70A8}">
+  <threadedComment ref="D1" dT="2024-04-15T13:35:52.34" personId="{1CD65258-FFA6-4AB2-8F7D-0E4AE7FB9673}" id="{8B35986E-8824-4746-95A3-8B5B0EFA70A8}">
     <text xml:space="preserve">Het volgende geldt voor alle lw_ kolommen:
 Verplicht: NEE
 Inputtype: float (hele óf komma getallen)
@@ -799,7 +717,7 @@
 Voorbeeld: 0,13 
 </text>
   </threadedComment>
-  <threadedComment ref="F1" dT="2024-04-15T13:37:18.39" personId="{1CD65258-FFA6-4AB2-8F7D-0E4AE7FB9673}" id="{C832C90C-B16B-4C44-89F6-276F4D8DB548}">
+  <threadedComment ref="E1" dT="2024-04-15T13:37:18.39" personId="{1CD65258-FFA6-4AB2-8F7D-0E4AE7FB9673}" id="{C832C90C-B16B-4C44-89F6-276F4D8DB548}">
     <text xml:space="preserve">Het volgende geldt voor alle lk_ kolommen:
 Verplicht: NEE
 Inputtype: integer (hele getallen)
@@ -807,7 +725,7 @@
 Voorbeeld: 7
 </text>
   </threadedComment>
-  <threadedComment ref="K1" dT="2024-04-15T14:09:55.32" personId="{1CD65258-FFA6-4AB2-8F7D-0E4AE7FB9673}" id="{CFD70E49-BEAB-4D0F-9434-E4606C308549}">
+  <threadedComment ref="J1" dT="2024-04-15T14:09:55.32" personId="{1CD65258-FFA6-4AB2-8F7D-0E4AE7FB9673}" id="{CFD70E49-BEAB-4D0F-9434-E4606C308549}">
     <text xml:space="preserve">Het volgende geldt voor alle lt_ kolommen:
 Verplicht: NEE
 Inputtype: string (tekst)
@@ -815,27 +733,27 @@
 Voorbeeld:  V-CONTINUOUS-SO
 </text>
   </threadedComment>
-  <threadedComment ref="AG1" dT="2024-04-15T14:13:05.02" personId="{1CD65258-FFA6-4AB2-8F7D-0E4AE7FB9673}" id="{36F6B07B-5F3C-4E8F-B592-EDFF0BB894E4}">
+  <threadedComment ref="AF1" dT="2024-04-15T14:13:05.02" personId="{1CD65258-FFA6-4AB2-8F7D-0E4AE7FB9673}" id="{36F6B07B-5F3C-4E8F-B592-EDFF0BB894E4}">
     <text xml:space="preserve">Verplicht: NEE
 Inputtype: string (tekst)
 Voorbeeld:  G
 </text>
   </threadedComment>
-  <threadedComment ref="AH1" dT="2024-04-15T14:15:27.29" personId="{1CD65258-FFA6-4AB2-8F7D-0E4AE7FB9673}" id="{0AEB88B0-7D0A-4B50-B7D8-A3DD4D0CA190}">
+  <threadedComment ref="AG1" dT="2024-04-15T14:15:27.29" personId="{1CD65258-FFA6-4AB2-8F7D-0E4AE7FB9673}" id="{0AEB88B0-7D0A-4B50-B7D8-A3DD4D0CA190}">
     <text xml:space="preserve">Verplicht: NEE
 Inputtype: string (tekst)
 Doel: De naam van het symbool om deze te linken aan het object. Deze naam moet compleet zijn met de sbib. De cel mag leeg blijven als er geen symbool aan gerelateerd is
 Voorbeeld:  SAL-AANKLEDING
 </text>
   </threadedComment>
-  <threadedComment ref="AI1" dT="2024-04-15T14:16:15.21" personId="{1CD65258-FFA6-4AB2-8F7D-0E4AE7FB9673}" id="{33346987-78F2-4D7D-B976-CF6F2CEBCCB2}">
+  <threadedComment ref="AH1" dT="2024-04-15T14:16:15.21" personId="{1CD65258-FFA6-4AB2-8F7D-0E4AE7FB9673}" id="{33346987-78F2-4D7D-B976-CF6F2CEBCCB2}">
     <text xml:space="preserve">Verplicht: NEE
 Inputtype: string (tekst)
 Doel: De naam van het arcering om deze te linken aan het object. Deze naam moet compleet zijn met de abib. De cel mag leeg blijven als er geen arcering aan gerelateerd is
 Voorbeeld:  AGW-WERK
 </text>
   </threadedComment>
-  <threadedComment ref="AJ1" dT="2024-04-15T14:17:30.95" personId="{1CD65258-FFA6-4AB2-8F7D-0E4AE7FB9673}" id="{132B3568-0A30-4C3C-9753-E098E12B8572}">
+  <threadedComment ref="AI1" dT="2024-04-15T14:17:30.95" personId="{1CD65258-FFA6-4AB2-8F7D-0E4AE7FB9673}" id="{132B3568-0A30-4C3C-9753-E098E12B8572}">
     <text xml:space="preserve">Verplicht: NEE
 Inputtype: string (tekst)
 Doel: Aangeven van de vrkl_kort waarde. De cel mag leeg gelaten worden.
@@ -845,214 +763,154 @@
 </ThreadedComments>
 </file>
 
-<file path=xl/threadedComments/threadedComment2.xml><?xml version="1.0" encoding="utf-8"?>
-<ThreadedComments xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <threadedComment ref="A1" dT="2024-04-15T14:23:04.45" personId="{1CD65258-FFA6-4AB2-8F7D-0E4AE7FB9673}" id="{3A8A9D40-6C8F-4FF5-A326-EC664DEFDF4B}">
-    <text xml:space="preserve">Verplicht: NEE
-Inputtype: integer (hele getallen)
-Doel: De hoofdgroepen met een nummer onderscheiden, kan uitgefaseerd worden vanwege de nieuwe URIs. Dit veld mag dus leeggelaten worden
-Voorbeeld:  1
-</text>
-  </threadedComment>
-  <threadedComment ref="B1" dT="2024-04-15T14:23:40.76" personId="{1CD65258-FFA6-4AB2-8F7D-0E4AE7FB9673}" id="{39D5801C-25C8-4A2E-91A0-FB3C86E35485}">
-    <text xml:space="preserve">Verplicht: JA
-Inputtype: string (tekst)
-Doel: De naam/beschrijving van de hoofdgroep
-Voorbeeld:  ALgemeen
-</text>
-  </threadedComment>
-  <threadedComment ref="C1" dT="2024-04-15T14:24:29.00" personId="{1CD65258-FFA6-4AB2-8F7D-0E4AE7FB9673}" id="{B2A5AE3E-593A-4E32-8CFF-3C39C0630F12}">
-    <text xml:space="preserve">Verplicht: JA
-Inputtype: string (tekst)
-Doel: De afkorting van de hoofdgroep
-Voorbeeld:  AL
-</text>
-  </threadedComment>
-</ThreadedComments>
-</file>
-
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{441DA252-5C16-490B-87A3-7782C7D33DD3}">
-  <dimension ref="A1:AJ1"/>
+  <dimension ref="A1:AI1"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="11" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="12.42578125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="8.85546875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="10" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="5" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="4.5703125" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="6.5703125" bestFit="1" customWidth="1"/>
-    <col min="8" max="9" width="7.5703125" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="6.28515625" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="4.140625" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="5" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="4.5703125" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="6.5703125" bestFit="1" customWidth="1"/>
-    <col min="15" max="16" width="7.5703125" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="6.28515625" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="4.140625" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="4.42578125" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="4" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="6" bestFit="1" customWidth="1"/>
-    <col min="22" max="23" width="7" bestFit="1" customWidth="1"/>
-    <col min="24" max="24" width="5.7109375" bestFit="1" customWidth="1"/>
-    <col min="25" max="25" width="3.5703125" bestFit="1" customWidth="1"/>
-    <col min="26" max="26" width="4.7109375" bestFit="1" customWidth="1"/>
-    <col min="27" max="27" width="4.28515625" bestFit="1" customWidth="1"/>
-    <col min="28" max="28" width="6.28515625" bestFit="1" customWidth="1"/>
-    <col min="29" max="30" width="7.28515625" bestFit="1" customWidth="1"/>
-    <col min="31" max="31" width="6" bestFit="1" customWidth="1"/>
-    <col min="32" max="32" width="3.85546875" bestFit="1" customWidth="1"/>
-    <col min="33" max="33" width="8" bestFit="1" customWidth="1"/>
-    <col min="34" max="34" width="7.42578125" bestFit="1" customWidth="1"/>
-    <col min="35" max="35" width="7.5703125" bestFit="1" customWidth="1"/>
-    <col min="36" max="36" width="8.42578125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="10.33203125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="12.44140625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="8.88671875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="5" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="4.5546875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="6.5546875" bestFit="1" customWidth="1"/>
+    <col min="7" max="8" width="7.5546875" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="6.33203125" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="4.109375" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="5" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="4.5546875" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="6.5546875" bestFit="1" customWidth="1"/>
+    <col min="14" max="15" width="7.5546875" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="6.33203125" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="4.109375" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="4.44140625" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="4" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="6" bestFit="1" customWidth="1"/>
+    <col min="21" max="22" width="7" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="5.6640625" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="3.5546875" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="4.6640625" bestFit="1" customWidth="1"/>
+    <col min="26" max="26" width="4.33203125" bestFit="1" customWidth="1"/>
+    <col min="27" max="27" width="6.33203125" bestFit="1" customWidth="1"/>
+    <col min="28" max="29" width="7.33203125" bestFit="1" customWidth="1"/>
+    <col min="30" max="30" width="6" bestFit="1" customWidth="1"/>
+    <col min="31" max="31" width="3.88671875" bestFit="1" customWidth="1"/>
+    <col min="32" max="32" width="8" bestFit="1" customWidth="1"/>
+    <col min="33" max="33" width="7.44140625" bestFit="1" customWidth="1"/>
+    <col min="34" max="34" width="7.5546875" bestFit="1" customWidth="1"/>
+    <col min="35" max="35" width="8.44140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:36" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:35" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A1" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="B1" s="4" t="s">
-        <v>4</v>
-      </c>
-      <c r="C1" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="D1" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="E1" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="F1" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="G1" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="H1" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="I1" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="J1" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="K1" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="L1" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="M1" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="N1" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="O1" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="P1" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="Q1" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="R1" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="S1" s="3" t="s">
-        <v>21</v>
-      </c>
-      <c r="T1" s="3" t="s">
-        <v>22</v>
-      </c>
-      <c r="U1" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="V1" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="W1" s="3" t="s">
-        <v>25</v>
-      </c>
-      <c r="X1" s="3" t="s">
-        <v>26</v>
-      </c>
-      <c r="Y1" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="Z1" s="3" t="s">
-        <v>28</v>
-      </c>
-      <c r="AA1" s="3" t="s">
-        <v>29</v>
-      </c>
-      <c r="AB1" s="3" t="s">
-        <v>30</v>
-      </c>
-      <c r="AC1" s="3" t="s">
-        <v>31</v>
-      </c>
-      <c r="AD1" s="3" t="s">
-        <v>32</v>
-      </c>
-      <c r="AE1" s="3" t="s">
-        <v>33</v>
-      </c>
-      <c r="AF1" s="3" t="s">
         <v>34</v>
       </c>
-      <c r="AG1" s="3" t="s">
-        <v>35</v>
-      </c>
-      <c r="AH1" s="3" t="s">
-        <v>36</v>
-      </c>
-      <c r="AI1" s="3" t="s">
-        <v>37</v>
-      </c>
-      <c r="AJ1" s="3" t="s">
-        <v>38</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <legacyDrawing r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{068DB9C8-22B1-45E9-BC69-39AFF5D9189E}">
-  <dimension ref="A1:C1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C1" sqref="C1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" width="13.85546875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="11.140625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="8.85546875" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:3" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="3" t="s">
+      <c r="B1" s="2" t="s">
         <v>0</v>
-      </c>
-      <c r="B1" s="2" t="s">
-        <v>2</v>
       </c>
       <c r="C1" s="2" t="s">
         <v>1</v>
+      </c>
+      <c r="D1" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="E1" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="F1" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="G1" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="H1" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="I1" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="J1" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="K1" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="L1" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="M1" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="N1" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="O1" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="P1" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="Q1" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="R1" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="S1" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="T1" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="U1" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="V1" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="W1" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="X1" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="Y1" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="Z1" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="AA1" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="AB1" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="AC1" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="AD1" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="AE1" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="AF1" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="AG1" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="AH1" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="AI1" s="3" t="s">
+        <v>33</v>
       </c>
     </row>
   </sheetData>

--- a/beheer/Template_NLCS_Objecten.xlsx
+++ b/beheer/Template_NLCS_Objecten.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27726"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28025"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\Shared drives\Projects\digiGO\(EP1340) DigiGO - NLCS uitbreidingen (grootboekrekening 7051)\Deliverables\NLCS\Templates\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9AA32A09-EF0C-4B90-8441-85501EB26B9D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{94C0B03F-6E3D-4F0F-9349-B84350E742C7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13896" xr2:uid="{60041FA5-5D75-483A-B673-B74EAE8C978B}"/>
   </bookViews>
@@ -44,7 +44,12 @@
     <author>tc={8B35986E-8824-4746-95A3-8B5B0EFA70A8}</author>
     <author>tc={C832C90C-B16B-4C44-89F6-276F4D8DB548}</author>
     <author>tc={CFD70E49-BEAB-4D0F-9434-E4606C308549}</author>
-    <author>tc={36F6B07B-5F3C-4E8F-B592-EDFF0BB894E4}</author>
+    <author>tc={BB129001-4F17-4EA5-A327-9D1130782F0E}</author>
+    <author>tc={809EB82D-C34E-4DAC-AC38-F3FDDC1AA88E}</author>
+    <author>tc={0C89C7DA-1553-46B1-A151-A61AEC2B6B09}</author>
+    <author>tc={A7A71520-9A9F-4D3B-BF85-BDA99184B488}</author>
+    <author>tc={94FEE429-4FF4-463B-8404-90FA26A19E53}</author>
+    <author>tc={540D8DAB-8D95-48A0-8FCB-EA3812CFD570}</author>
     <author>tc={0AEB88B0-7D0A-4B50-B7D8-A3DD4D0CA190}</author>
     <author>tc={33346987-78F2-4D7D-B976-CF6F2CEBCCB2}</author>
     <author>tc={132B3568-0A30-4C3C-9753-E098E12B8572}</author>
@@ -99,7 +104,7 @@
 </t>
       </text>
     </comment>
-    <comment ref="E1" authorId="4" shapeId="0" xr:uid="{C832C90C-B16B-4C44-89F6-276F4D8DB548}">
+    <comment ref="G1" authorId="4" shapeId="0" xr:uid="{C832C90C-B16B-4C44-89F6-276F4D8DB548}">
       <text>
         <t xml:space="preserve">[Threaded comment]
 Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
@@ -112,7 +117,7 @@
 </t>
       </text>
     </comment>
-    <comment ref="J1" authorId="5" shapeId="0" xr:uid="{CFD70E49-BEAB-4D0F-9434-E4606C308549}">
+    <comment ref="N1" authorId="5" shapeId="0" xr:uid="{CFD70E49-BEAB-4D0F-9434-E4606C308549}">
       <text>
         <t xml:space="preserve">[Threaded comment]
 Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
@@ -125,18 +130,85 @@
 </t>
       </text>
     </comment>
-    <comment ref="AF1" authorId="6" shapeId="0" xr:uid="{36F6B07B-5F3C-4E8F-B592-EDFF0BB894E4}">
-      <text>
-        <t xml:space="preserve">[Threaded comment]
-Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
-Comment:
-    Verplicht: NEE
-Inputtype: string (tekst)
-Voorbeeld:  G
-</t>
-      </text>
-    </comment>
-    <comment ref="AG1" authorId="7" shapeId="0" xr:uid="{0AEB88B0-7D0A-4B50-B7D8-A3DD4D0CA190}">
+    <comment ref="Q1" authorId="6" shapeId="0" xr:uid="{BB129001-4F17-4EA5-A327-9D1130782F0E}">
+      <text>
+        <t xml:space="preserve">[Threaded comment]
+Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
+Comment:
+    Het volgende geldt voor alle lw_ kolommen:
+Verplicht: NEE
+Inputtype: float (hele óf komma getallen)
+Doel: Aangeven wat de waarde van de lijnweight is bijbehorend bij de B N V T lijnen. Dit MOET een bekende waarde voor een lijnweight zijn. Indien het een nieuwe waarde is, moet deze waarde in Laces Apps onder de Lijnweight aangemaakt worden. Mocht er geen lijnweight gelden, kan deze cel leeggelaten worden, of zoals voorheen ingevuld worden met -1.
+Voorbeeld: 0,13 
+</t>
+      </text>
+    </comment>
+    <comment ref="T1" authorId="7" shapeId="0" xr:uid="{809EB82D-C34E-4DAC-AC38-F3FDDC1AA88E}">
+      <text>
+        <t xml:space="preserve">[Threaded comment]
+Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
+Comment:
+    Het volgende geldt voor alle lk_ kolommen:
+Verplicht: NEE
+Inputtype: integer (hele getallen)
+Doel: Aangeven wat de waarde van de lijnkleur is bijbehorend bij de B N V T lijnen. Dit MOET een bekende waarde voor een lijnkeur zijn. Indien het een nieuwe waarde is, moet deze waarde in Laces Apps onder de Lijnkleur aangemaakt worden. Mocht er geen lijnkleur gelden, kan deze cel leeggelaten worden, of zoals voorheen ingevuld worden met -1.
+Voorbeeld: 7
+</t>
+      </text>
+    </comment>
+    <comment ref="AA1" authorId="8" shapeId="0" xr:uid="{0C89C7DA-1553-46B1-A151-A61AEC2B6B09}">
+      <text>
+        <t xml:space="preserve">[Threaded comment]
+Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
+Comment:
+    Het volgende geldt voor alle lt_ kolommen:
+Verplicht: NEE
+Inputtype: string (tekst)
+Doel: De naam van de lijntype om deze te linken aan het object. Deze naam MOET compleet zijn met de eventuele fase en optie. De cel mag leeg blijven als er geen lijntype aan gerelateerd is
+Voorbeeld:  V-CONTINUOUS-SO
+</t>
+      </text>
+    </comment>
+    <comment ref="AD1" authorId="9" shapeId="0" xr:uid="{A7A71520-9A9F-4D3B-BF85-BDA99184B488}">
+      <text>
+        <t xml:space="preserve">[Threaded comment]
+Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
+Comment:
+    Het volgende geldt voor alle lw_ kolommen:
+Verplicht: NEE
+Inputtype: float (hele óf komma getallen)
+Doel: Aangeven wat de waarde van de lijnweight is bijbehorend bij de B N V T lijnen. Dit MOET een bekende waarde voor een lijnweight zijn. Indien het een nieuwe waarde is, moet deze waarde in Laces Apps onder de Lijnweight aangemaakt worden. Mocht er geen lijnweight gelden, kan deze cel leeggelaten worden, of zoals voorheen ingevuld worden met -1.
+Voorbeeld: 0,13 
+</t>
+      </text>
+    </comment>
+    <comment ref="AG1" authorId="10" shapeId="0" xr:uid="{94FEE429-4FF4-463B-8404-90FA26A19E53}">
+      <text>
+        <t xml:space="preserve">[Threaded comment]
+Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
+Comment:
+    Het volgende geldt voor alle lk_ kolommen:
+Verplicht: NEE
+Inputtype: integer (hele getallen)
+Doel: Aangeven wat de waarde van de lijnkleur is bijbehorend bij de B N V T lijnen. Dit MOET een bekende waarde voor een lijnkeur zijn. Indien het een nieuwe waarde is, moet deze waarde in Laces Apps onder de Lijnkleur aangemaakt worden. Mocht er geen lijnkleur gelden, kan deze cel leeggelaten worden, of zoals voorheen ingevuld worden met -1.
+Voorbeeld: 7
+</t>
+      </text>
+    </comment>
+    <comment ref="AN1" authorId="11" shapeId="0" xr:uid="{540D8DAB-8D95-48A0-8FCB-EA3812CFD570}">
+      <text>
+        <t xml:space="preserve">[Threaded comment]
+Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
+Comment:
+    Het volgende geldt voor alle lt_ kolommen:
+Verplicht: NEE
+Inputtype: string (tekst)
+Doel: De naam van de lijntype om deze te linken aan het object. Deze naam MOET compleet zijn met de eventuele fase en optie. De cel mag leeg blijven als er geen lijntype aan gerelateerd is
+Voorbeeld:  V-CONTINUOUS-SO
+</t>
+      </text>
+    </comment>
+    <comment ref="BD1" authorId="12" shapeId="0" xr:uid="{0AEB88B0-7D0A-4B50-B7D8-A3DD4D0CA190}">
       <text>
         <t xml:space="preserve">[Threaded comment]
 Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
@@ -148,7 +220,7 @@
 </t>
       </text>
     </comment>
-    <comment ref="AH1" authorId="8" shapeId="0" xr:uid="{33346987-78F2-4D7D-B976-CF6F2CEBCCB2}">
+    <comment ref="BE1" authorId="13" shapeId="0" xr:uid="{33346987-78F2-4D7D-B976-CF6F2CEBCCB2}">
       <text>
         <t xml:space="preserve">[Threaded comment]
 Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
@@ -160,7 +232,7 @@
 </t>
       </text>
     </comment>
-    <comment ref="AI1" authorId="9" shapeId="0" xr:uid="{132B3568-0A30-4C3C-9753-E098E12B8572}">
+    <comment ref="BF1" authorId="14" shapeId="0" xr:uid="{132B3568-0A30-4C3C-9753-E098E12B8572}">
       <text>
         <t xml:space="preserve">[Threaded comment]
 Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
@@ -177,7 +249,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="35">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="58" uniqueCount="58">
   <si>
     <t>omschrijving</t>
   </si>
@@ -269,9 +341,6 @@
     <t>lt_v</t>
   </si>
   <si>
-    <t>element</t>
-  </si>
-  <si>
     <t>sobject</t>
   </si>
   <si>
@@ -282,13 +351,85 @@
   </si>
   <si>
     <t>hoofdgroep</t>
+  </si>
+  <si>
+    <t>kl_b_reserve</t>
+  </si>
+  <si>
+    <t>lt_b_reserve</t>
+  </si>
+  <si>
+    <t>lw_b_reserve</t>
+  </si>
+  <si>
+    <t>lw_b_verlaten</t>
+  </si>
+  <si>
+    <t>kl_b_verlaten</t>
+  </si>
+  <si>
+    <t>lt_b_verlaten</t>
+  </si>
+  <si>
+    <t>lw_n_reserve</t>
+  </si>
+  <si>
+    <t>lw_n_verlaten</t>
+  </si>
+  <si>
+    <t>kl_n_reserve</t>
+  </si>
+  <si>
+    <t>kl_n_verlaten</t>
+  </si>
+  <si>
+    <t>lt_n_reserve</t>
+  </si>
+  <si>
+    <t>lt_n_verlaten</t>
+  </si>
+  <si>
+    <t>lw_t_reserve</t>
+  </si>
+  <si>
+    <t>lw_t_verlaten</t>
+  </si>
+  <si>
+    <t>kl_t_reserve</t>
+  </si>
+  <si>
+    <t>kl_t_verlaten</t>
+  </si>
+  <si>
+    <t>lt_t_reserve</t>
+  </si>
+  <si>
+    <t>lt_t_verlaten</t>
+  </si>
+  <si>
+    <t>lw_v_reserve</t>
+  </si>
+  <si>
+    <t>lw_v_verlaten</t>
+  </si>
+  <si>
+    <t>kl_v_reserve</t>
+  </si>
+  <si>
+    <t>kl_v_verlaten</t>
+  </si>
+  <si>
+    <t>lt_v_reserve</t>
+  </si>
+  <si>
+    <t>lt_v_verlaten</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -303,12 +444,6 @@
       <name val="Aptos Narrow"/>
       <family val="2"/>
       <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="9"/>
-      <color indexed="81"/>
-      <name val="Tahoma"/>
-      <charset val="1"/>
     </font>
   </fonts>
   <fills count="4">
@@ -717,7 +852,7 @@
 Voorbeeld: 0,13 
 </text>
   </threadedComment>
-  <threadedComment ref="E1" dT="2024-04-15T13:37:18.39" personId="{1CD65258-FFA6-4AB2-8F7D-0E4AE7FB9673}" id="{C832C90C-B16B-4C44-89F6-276F4D8DB548}">
+  <threadedComment ref="G1" dT="2024-04-15T13:37:18.39" personId="{1CD65258-FFA6-4AB2-8F7D-0E4AE7FB9673}" id="{C832C90C-B16B-4C44-89F6-276F4D8DB548}">
     <text xml:space="preserve">Het volgende geldt voor alle lk_ kolommen:
 Verplicht: NEE
 Inputtype: integer (hele getallen)
@@ -725,7 +860,7 @@
 Voorbeeld: 7
 </text>
   </threadedComment>
-  <threadedComment ref="J1" dT="2024-04-15T14:09:55.32" personId="{1CD65258-FFA6-4AB2-8F7D-0E4AE7FB9673}" id="{CFD70E49-BEAB-4D0F-9434-E4606C308549}">
+  <threadedComment ref="N1" dT="2024-04-15T14:09:55.32" personId="{1CD65258-FFA6-4AB2-8F7D-0E4AE7FB9673}" id="{CFD70E49-BEAB-4D0F-9434-E4606C308549}">
     <text xml:space="preserve">Het volgende geldt voor alle lt_ kolommen:
 Verplicht: NEE
 Inputtype: string (tekst)
@@ -733,27 +868,69 @@
 Voorbeeld:  V-CONTINUOUS-SO
 </text>
   </threadedComment>
-  <threadedComment ref="AF1" dT="2024-04-15T14:13:05.02" personId="{1CD65258-FFA6-4AB2-8F7D-0E4AE7FB9673}" id="{36F6B07B-5F3C-4E8F-B592-EDFF0BB894E4}">
-    <text xml:space="preserve">Verplicht: NEE
-Inputtype: string (tekst)
-Voorbeeld:  G
-</text>
-  </threadedComment>
-  <threadedComment ref="AG1" dT="2024-04-15T14:15:27.29" personId="{1CD65258-FFA6-4AB2-8F7D-0E4AE7FB9673}" id="{0AEB88B0-7D0A-4B50-B7D8-A3DD4D0CA190}">
+  <threadedComment ref="Q1" dT="2024-04-15T13:35:52.34" personId="{1CD65258-FFA6-4AB2-8F7D-0E4AE7FB9673}" id="{BB129001-4F17-4EA5-A327-9D1130782F0E}">
+    <text xml:space="preserve">Het volgende geldt voor alle lw_ kolommen:
+Verplicht: NEE
+Inputtype: float (hele óf komma getallen)
+Doel: Aangeven wat de waarde van de lijnweight is bijbehorend bij de B N V T lijnen. Dit MOET een bekende waarde voor een lijnweight zijn. Indien het een nieuwe waarde is, moet deze waarde in Laces Apps onder de Lijnweight aangemaakt worden. Mocht er geen lijnweight gelden, kan deze cel leeggelaten worden, of zoals voorheen ingevuld worden met -1.
+Voorbeeld: 0,13 
+</text>
+  </threadedComment>
+  <threadedComment ref="T1" dT="2024-04-15T13:37:18.39" personId="{1CD65258-FFA6-4AB2-8F7D-0E4AE7FB9673}" id="{809EB82D-C34E-4DAC-AC38-F3FDDC1AA88E}">
+    <text xml:space="preserve">Het volgende geldt voor alle lk_ kolommen:
+Verplicht: NEE
+Inputtype: integer (hele getallen)
+Doel: Aangeven wat de waarde van de lijnkleur is bijbehorend bij de B N V T lijnen. Dit MOET een bekende waarde voor een lijnkeur zijn. Indien het een nieuwe waarde is, moet deze waarde in Laces Apps onder de Lijnkleur aangemaakt worden. Mocht er geen lijnkleur gelden, kan deze cel leeggelaten worden, of zoals voorheen ingevuld worden met -1.
+Voorbeeld: 7
+</text>
+  </threadedComment>
+  <threadedComment ref="AA1" dT="2024-04-15T14:09:55.32" personId="{1CD65258-FFA6-4AB2-8F7D-0E4AE7FB9673}" id="{0C89C7DA-1553-46B1-A151-A61AEC2B6B09}">
+    <text xml:space="preserve">Het volgende geldt voor alle lt_ kolommen:
+Verplicht: NEE
+Inputtype: string (tekst)
+Doel: De naam van de lijntype om deze te linken aan het object. Deze naam MOET compleet zijn met de eventuele fase en optie. De cel mag leeg blijven als er geen lijntype aan gerelateerd is
+Voorbeeld:  V-CONTINUOUS-SO
+</text>
+  </threadedComment>
+  <threadedComment ref="AD1" dT="2024-04-15T13:35:52.34" personId="{1CD65258-FFA6-4AB2-8F7D-0E4AE7FB9673}" id="{A7A71520-9A9F-4D3B-BF85-BDA99184B488}">
+    <text xml:space="preserve">Het volgende geldt voor alle lw_ kolommen:
+Verplicht: NEE
+Inputtype: float (hele óf komma getallen)
+Doel: Aangeven wat de waarde van de lijnweight is bijbehorend bij de B N V T lijnen. Dit MOET een bekende waarde voor een lijnweight zijn. Indien het een nieuwe waarde is, moet deze waarde in Laces Apps onder de Lijnweight aangemaakt worden. Mocht er geen lijnweight gelden, kan deze cel leeggelaten worden, of zoals voorheen ingevuld worden met -1.
+Voorbeeld: 0,13 
+</text>
+  </threadedComment>
+  <threadedComment ref="AG1" dT="2024-04-15T13:37:18.39" personId="{1CD65258-FFA6-4AB2-8F7D-0E4AE7FB9673}" id="{94FEE429-4FF4-463B-8404-90FA26A19E53}">
+    <text xml:space="preserve">Het volgende geldt voor alle lk_ kolommen:
+Verplicht: NEE
+Inputtype: integer (hele getallen)
+Doel: Aangeven wat de waarde van de lijnkleur is bijbehorend bij de B N V T lijnen. Dit MOET een bekende waarde voor een lijnkeur zijn. Indien het een nieuwe waarde is, moet deze waarde in Laces Apps onder de Lijnkleur aangemaakt worden. Mocht er geen lijnkleur gelden, kan deze cel leeggelaten worden, of zoals voorheen ingevuld worden met -1.
+Voorbeeld: 7
+</text>
+  </threadedComment>
+  <threadedComment ref="AN1" dT="2024-04-15T14:09:55.32" personId="{1CD65258-FFA6-4AB2-8F7D-0E4AE7FB9673}" id="{540D8DAB-8D95-48A0-8FCB-EA3812CFD570}">
+    <text xml:space="preserve">Het volgende geldt voor alle lt_ kolommen:
+Verplicht: NEE
+Inputtype: string (tekst)
+Doel: De naam van de lijntype om deze te linken aan het object. Deze naam MOET compleet zijn met de eventuele fase en optie. De cel mag leeg blijven als er geen lijntype aan gerelateerd is
+Voorbeeld:  V-CONTINUOUS-SO
+</text>
+  </threadedComment>
+  <threadedComment ref="BD1" dT="2024-04-15T14:15:27.29" personId="{1CD65258-FFA6-4AB2-8F7D-0E4AE7FB9673}" id="{0AEB88B0-7D0A-4B50-B7D8-A3DD4D0CA190}">
     <text xml:space="preserve">Verplicht: NEE
 Inputtype: string (tekst)
 Doel: De naam van het symbool om deze te linken aan het object. Deze naam moet compleet zijn met de sbib. De cel mag leeg blijven als er geen symbool aan gerelateerd is
 Voorbeeld:  SAL-AANKLEDING
 </text>
   </threadedComment>
-  <threadedComment ref="AH1" dT="2024-04-15T14:16:15.21" personId="{1CD65258-FFA6-4AB2-8F7D-0E4AE7FB9673}" id="{33346987-78F2-4D7D-B976-CF6F2CEBCCB2}">
+  <threadedComment ref="BE1" dT="2024-04-15T14:16:15.21" personId="{1CD65258-FFA6-4AB2-8F7D-0E4AE7FB9673}" id="{33346987-78F2-4D7D-B976-CF6F2CEBCCB2}">
     <text xml:space="preserve">Verplicht: NEE
 Inputtype: string (tekst)
 Doel: De naam van het arcering om deze te linken aan het object. Deze naam moet compleet zijn met de abib. De cel mag leeg blijven als er geen arcering aan gerelateerd is
 Voorbeeld:  AGW-WERK
 </text>
   </threadedComment>
-  <threadedComment ref="AI1" dT="2024-04-15T14:17:30.95" personId="{1CD65258-FFA6-4AB2-8F7D-0E4AE7FB9673}" id="{132B3568-0A30-4C3C-9753-E098E12B8572}">
+  <threadedComment ref="BF1" dT="2024-04-15T14:17:30.95" personId="{1CD65258-FFA6-4AB2-8F7D-0E4AE7FB9673}" id="{132B3568-0A30-4C3C-9753-E098E12B8572}">
     <text xml:space="preserve">Verplicht: NEE
 Inputtype: string (tekst)
 Doel: Aangeven van de vrkl_kort waarde. De cel mag leeg gelaten worden.
@@ -765,10 +942,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{441DA252-5C16-490B-87A3-7782C7D33DD3}">
-  <dimension ref="A1:AI1"/>
+  <dimension ref="A1:BG1"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+      <selection activeCell="B8" sqref="B8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -776,39 +953,63 @@
     <col min="1" max="1" width="10.33203125" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="12.44140625" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="8.88671875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="5" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="4.5546875" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="6.5546875" bestFit="1" customWidth="1"/>
-    <col min="7" max="8" width="7.5546875" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="6.33203125" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="4.109375" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="5" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="4.5546875" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="6.5546875" bestFit="1" customWidth="1"/>
-    <col min="14" max="15" width="7.5546875" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="6.33203125" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="4.109375" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="4.44140625" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="4" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="6" bestFit="1" customWidth="1"/>
-    <col min="21" max="22" width="7" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="5.6640625" bestFit="1" customWidth="1"/>
-    <col min="24" max="24" width="3.5546875" bestFit="1" customWidth="1"/>
-    <col min="25" max="25" width="4.6640625" bestFit="1" customWidth="1"/>
-    <col min="26" max="26" width="4.33203125" bestFit="1" customWidth="1"/>
-    <col min="27" max="27" width="6.33203125" bestFit="1" customWidth="1"/>
-    <col min="28" max="29" width="7.33203125" bestFit="1" customWidth="1"/>
-    <col min="30" max="30" width="6" bestFit="1" customWidth="1"/>
-    <col min="31" max="31" width="3.88671875" bestFit="1" customWidth="1"/>
-    <col min="32" max="32" width="8" bestFit="1" customWidth="1"/>
-    <col min="33" max="33" width="7.44140625" bestFit="1" customWidth="1"/>
-    <col min="34" max="34" width="7.5546875" bestFit="1" customWidth="1"/>
-    <col min="35" max="35" width="8.44140625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="4.77734375" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="11.6640625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="12.33203125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="4.44140625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="11.33203125" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="12" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="6.21875" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="7.21875" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="7.109375" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="6.109375" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="4.109375" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="11" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="11.6640625" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="4.6640625" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="11.5546875" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="12.21875" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="4.33203125" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="11.21875" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="11.88671875" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="6.109375" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="7.109375" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="7" bestFit="1" customWidth="1"/>
+    <col min="26" max="26" width="6" bestFit="1" customWidth="1"/>
+    <col min="27" max="27" width="4" bestFit="1" customWidth="1"/>
+    <col min="28" max="28" width="10.88671875" bestFit="1" customWidth="1"/>
+    <col min="29" max="29" width="11.5546875" bestFit="1" customWidth="1"/>
+    <col min="30" max="30" width="4.33203125" bestFit="1" customWidth="1"/>
+    <col min="31" max="31" width="11.21875" bestFit="1" customWidth="1"/>
+    <col min="32" max="32" width="11.88671875" bestFit="1" customWidth="1"/>
+    <col min="33" max="33" width="6" bestFit="1" customWidth="1"/>
+    <col min="34" max="34" width="10.88671875" bestFit="1" customWidth="1"/>
+    <col min="35" max="35" width="11.5546875" bestFit="1" customWidth="1"/>
+    <col min="36" max="36" width="6" bestFit="1" customWidth="1"/>
+    <col min="37" max="37" width="6.77734375" bestFit="1" customWidth="1"/>
+    <col min="38" max="38" width="7.21875" bestFit="1" customWidth="1"/>
+    <col min="39" max="39" width="7.5546875" bestFit="1" customWidth="1"/>
+    <col min="40" max="40" width="3.6640625" bestFit="1" customWidth="1"/>
+    <col min="41" max="41" width="10.5546875" bestFit="1" customWidth="1"/>
+    <col min="42" max="42" width="11.21875" bestFit="1" customWidth="1"/>
+    <col min="43" max="43" width="4.5546875" bestFit="1" customWidth="1"/>
+    <col min="44" max="44" width="11.44140625" bestFit="1" customWidth="1"/>
+    <col min="45" max="45" width="12.109375" bestFit="1" customWidth="1"/>
+    <col min="46" max="46" width="4.21875" bestFit="1" customWidth="1"/>
+    <col min="47" max="47" width="11.109375" bestFit="1" customWidth="1"/>
+    <col min="48" max="48" width="11.77734375" bestFit="1" customWidth="1"/>
+    <col min="49" max="49" width="6" bestFit="1" customWidth="1"/>
+    <col min="50" max="50" width="7" bestFit="1" customWidth="1"/>
+    <col min="51" max="51" width="6.88671875" bestFit="1" customWidth="1"/>
+    <col min="52" max="52" width="5.88671875" bestFit="1" customWidth="1"/>
+    <col min="53" max="53" width="3.88671875" bestFit="1" customWidth="1"/>
+    <col min="54" max="54" width="10.77734375" bestFit="1" customWidth="1"/>
+    <col min="55" max="55" width="11.44140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:35" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:59" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A1" s="2" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B1" s="2" t="s">
         <v>0</v>
@@ -820,98 +1021,168 @@
         <v>2</v>
       </c>
       <c r="E1" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="F1" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="G1" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="F1" s="3" t="s">
+      <c r="H1" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="I1" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="J1" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="G1" s="3" t="s">
+      <c r="K1" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="H1" s="3" t="s">
+      <c r="L1" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="I1" s="3" t="s">
+      <c r="M1" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="J1" s="3" t="s">
+      <c r="N1" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="K1" s="3" t="s">
+      <c r="O1" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="P1" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="Q1" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="L1" s="3" t="s">
+      <c r="R1" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="S1" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="T1" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="M1" s="3" t="s">
+      <c r="U1" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="V1" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="W1" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="N1" s="3" t="s">
+      <c r="X1" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="O1" s="3" t="s">
+      <c r="Y1" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="P1" s="3" t="s">
+      <c r="Z1" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="Q1" s="3" t="s">
+      <c r="AA1" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="R1" s="3" t="s">
+      <c r="AB1" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="AC1" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="AD1" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="S1" s="3" t="s">
+      <c r="AE1" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="AF1" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="AG1" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="T1" s="3" t="s">
+      <c r="AH1" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="AI1" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="AJ1" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="U1" s="3" t="s">
+      <c r="AK1" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="V1" s="3" t="s">
+      <c r="AL1" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="W1" s="3" t="s">
+      <c r="AM1" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="X1" s="3" t="s">
+      <c r="AN1" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="Y1" s="3" t="s">
+      <c r="AO1" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="AP1" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="AQ1" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="Z1" s="3" t="s">
+      <c r="AR1" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="AS1" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="AT1" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="AA1" s="3" t="s">
+      <c r="AU1" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="AV1" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="AW1" s="3" t="s">
         <v>25</v>
       </c>
-      <c r="AB1" s="3" t="s">
+      <c r="AX1" s="3" t="s">
         <v>26</v>
       </c>
-      <c r="AC1" s="3" t="s">
+      <c r="AY1" s="3" t="s">
         <v>27</v>
       </c>
-      <c r="AD1" s="3" t="s">
+      <c r="AZ1" s="3" t="s">
         <v>28</v>
       </c>
-      <c r="AE1" s="3" t="s">
+      <c r="BA1" s="3" t="s">
         <v>29</v>
       </c>
-      <c r="AF1" s="3" t="s">
+      <c r="BB1" s="3" t="s">
+        <v>56</v>
+      </c>
+      <c r="BC1" s="3" t="s">
+        <v>57</v>
+      </c>
+      <c r="BD1" s="3" t="s">
         <v>30</v>
       </c>
-      <c r="AG1" s="3" t="s">
+      <c r="BE1" s="3" t="s">
         <v>31</v>
       </c>
-      <c r="AH1" s="3" t="s">
+      <c r="BF1" s="3" t="s">
         <v>32</v>
       </c>
-      <c r="AI1" s="3" t="s">
-        <v>33</v>
-      </c>
+      <c r="BG1"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
